--- a/data/InputData.xlsx
+++ b/data/InputData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="3135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -22,23 +23,17 @@
     <t>Search String</t>
   </si>
   <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
     <t>Sony 65 inch TV</t>
   </si>
   <si>
-    <t>LG 65 inch TV</t>
+    <t>EbayNativeApp_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,10 +156,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +190,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,20 +365,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,20 +386,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
